--- a/input_files/Behavior_Immune_data/LongStereo - Year four stereotyped behaviors.xlsx
+++ b/input_files/Behavior_Immune_data/LongStereo - Year four stereotyped behaviors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Destanie\Documents\Destanie's Documents\Grad school\Ashwood lab\Projects\Primate Projects\AMA 27 Behaviors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephboktor/Documents/NHP_MIA_Omics/input_files/Behavior_Immune_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231E7BC-B203-CA4D-B684-F2EB8557F3C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28755" windowHeight="13095" activeTab="2"/>
+    <workbookView xWindow="2900" yWindow="3580" windowWidth="32840" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PostWeanStereowithCodes" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="47">
   <si>
     <t>Observation</t>
-  </si>
-  <si>
-    <t>PROJECTCODE</t>
   </si>
   <si>
     <t>COHORT</t>
@@ -43,18 +41,6 @@
   </si>
   <si>
     <t>EXPCODE2</t>
-  </si>
-  <si>
-    <t>TOTALWHOLEBODYSTEREOS</t>
-  </si>
-  <si>
-    <t>TOTALSELFDIRECTEDSTEREOS</t>
-  </si>
-  <si>
-    <t>TOTALOTHERSTEREOS</t>
-  </si>
-  <si>
-    <t>TOTALALLSTEREOS</t>
   </si>
   <si>
     <t>AMA27</t>
@@ -102,40 +88,7 @@
     <t>PostWean</t>
   </si>
   <si>
-    <t>ALL WHOLE BODY</t>
-  </si>
-  <si>
-    <t>OTHER STEREO TOTAL</t>
-  </si>
-  <si>
-    <t>SELF DIRECTED TOTAL</t>
-  </si>
-  <si>
-    <t>ALL STEREO TOTAL</t>
-  </si>
-  <si>
     <t>Juvenile</t>
-  </si>
-  <si>
-    <t>ANIMALID</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>TotalSelfDirectedStereo</t>
-  </si>
-  <si>
-    <t>TotalWholeBodyStereo</t>
-  </si>
-  <si>
-    <t>TotalStereo</t>
-  </si>
-  <si>
-    <t>Total Other Stereo</t>
-  </si>
-  <si>
-    <t>sort by</t>
   </si>
   <si>
     <t>MMU</t>
@@ -195,34 +148,28 @@
     <t>Birthdate</t>
   </si>
   <si>
-    <t>y4_mean_TotalSelfDirectedStereo</t>
+    <t>self_directed_stereos</t>
   </si>
   <si>
-    <t>y4_mean_TotalWholeBodyStereo</t>
+    <t>other_stereos</t>
   </si>
   <si>
-    <t>y4_mean_TotalStereo</t>
+    <t>all_stereos</t>
   </si>
   <si>
-    <t>y4_sum_TotalSelfDirectedStereo</t>
+    <t>whole_body_stereos</t>
   </si>
   <si>
-    <t>y4_sum_TotalWholeBodyStereo</t>
+    <t>Adult</t>
   </si>
   <si>
-    <t>y4_sum_TotalStereo</t>
-  </si>
-  <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re </t>
+    <t>Animal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -286,19 +233,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -311,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -347,14 +281,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,6 +387,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,6 +439,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,31 +631,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>38</v>
+      <c r="B1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -707,920 +675,848 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10">
+        <v>39673</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6">
+        <v>39689</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>39813</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>39827</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <v>39988</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>40212</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
+        <v>40228</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6">
+        <v>40295</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <v>40302</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10">
-        <v>39673</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6">
+        <v>40318</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
         <v>0.25</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
-        <v>39689</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6">
-        <v>39813</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
-        <v>39827</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6">
-        <v>39988</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="L6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6">
-        <v>40212</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6">
-        <v>40228</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6">
-        <v>40295</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6">
-        <v>40302</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="L10" s="1">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>40318</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>0.25</v>
       </c>
-      <c r="L11" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6">
         <v>40335</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
         <v>4</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="B13" s="6">
+        <v>40360</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.75</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6">
-        <v>40360</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
       <c r="I13" s="1">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="J13" s="1">
-        <v>2.75</v>
+        <v>18.25</v>
       </c>
       <c r="K13" s="1">
-        <v>18.25</v>
-      </c>
-      <c r="L13" s="1">
         <v>21.75</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6">
         <v>40390</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="K14" s="1">
         <v>20.5</v>
       </c>
-      <c r="L14" s="1">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6">
+        <v>40395</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6">
+        <v>40440</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6">
+        <v>40469</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6">
-        <v>40395</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6">
+        <v>40473</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>9.25</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6">
-        <v>40440</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6">
+        <v>40475</v>
+      </c>
+      <c r="C19" s="1">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>13.25</v>
+      </c>
+      <c r="K19" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>40476</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>40477</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6">
-        <v>40469</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B22" s="6">
+        <v>40478</v>
+      </c>
+      <c r="C22" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6">
+        <v>40479</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>11.75</v>
+      </c>
+      <c r="K23" s="1">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
+        <v>40480</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6">
-        <v>40473</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6">
+        <v>40482</v>
+      </c>
+      <c r="C25" s="1">
         <v>6</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="6">
-        <v>40475</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>13.25</v>
-      </c>
-      <c r="L19" s="1">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="6">
-        <v>40476</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6">
-        <v>40477</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6">
-        <v>40478</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="6">
-        <v>40479</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="K23" s="1">
-        <v>11.75</v>
-      </c>
-      <c r="L23" s="1">
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="6">
-        <v>40480</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="1">
-        <v>4</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="6">
-        <v>40482</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="1">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>18</v>
+      <c r="H25" s="1">
+        <v>0</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -1629,9 +1525,6 @@
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1641,163 +1534,165 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="17" max="70" width="9.140625" style="3"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="3"/>
+    <col min="15" max="67" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:67" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+    </row>
+    <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10">
+        <v>39673</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="16">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="23"/>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="23"/>
-      <c r="BR1" s="23"/>
-    </row>
-    <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10">
-        <v>39673</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="16">
-        <v>2</v>
-      </c>
-      <c r="G2" s="16">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
       <c r="J2" s="2">
-        <v>6</v>
+        <v>0.75</v>
       </c>
       <c r="K2" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L2" s="2">
         <v>6.75</v>
       </c>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -1844,55 +1739,51 @@
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
       <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-    </row>
-    <row r="3" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6">
+        <v>39689</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
-        <v>39689</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.25</v>
       </c>
       <c r="I3" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -1939,55 +1830,51 @@
       <c r="BM3" s="3"/>
       <c r="BN3" s="3"/>
       <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-    </row>
-    <row r="4" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6">
         <v>39813</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
       </c>
       <c r="F4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="J4" s="2">
-        <v>7.25</v>
+        <v>9.5</v>
       </c>
       <c r="K4" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="L4" s="2">
         <v>16.75</v>
       </c>
+      <c r="L4"/>
+      <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -2034,55 +1921,51 @@
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
       <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-    </row>
-    <row r="5" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6">
         <v>39827</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
       </c>
       <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>23</v>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2">
         <v>2</v>
       </c>
-      <c r="L5" s="2">
-        <v>2</v>
-      </c>
+      <c r="L5"/>
+      <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -2129,55 +2012,51 @@
       <c r="BM5" s="3"/>
       <c r="BN5" s="3"/>
       <c r="BO5" s="3"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3"/>
-      <c r="BR5" s="3"/>
-    </row>
-    <row r="6" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
         <v>39988</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
       </c>
       <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K6" s="2">
         <v>2.5</v>
       </c>
-      <c r="L6" s="2">
-        <v>2.5</v>
-      </c>
+      <c r="L6"/>
+      <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -2224,55 +2103,51 @@
       <c r="BM6" s="3"/>
       <c r="BN6" s="3"/>
       <c r="BO6" s="3"/>
-      <c r="BP6" s="3"/>
-      <c r="BQ6" s="3"/>
-      <c r="BR6" s="3"/>
-    </row>
-    <row r="7" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6">
         <v>40212</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
       </c>
       <c r="F7" s="16">
         <v>2</v>
       </c>
-      <c r="G7" s="16">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.5</v>
       </c>
       <c r="I7" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="2">
         <v>2</v>
       </c>
       <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
         <v>4.5</v>
       </c>
+      <c r="L7"/>
+      <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -2319,55 +2194,51 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
       <c r="BO7" s="3"/>
-      <c r="BP7" s="3"/>
-      <c r="BQ7" s="3"/>
-      <c r="BR7" s="3"/>
-    </row>
-    <row r="8" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <v>40228</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6">
-        <v>40228</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="K8" s="2">
         <v>7.75</v>
       </c>
-      <c r="L8" s="2">
-        <v>7.75</v>
-      </c>
+      <c r="L8"/>
+      <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -2414,34 +2285,31 @@
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
       <c r="BO8" s="3"/>
-      <c r="BP8" s="3"/>
-      <c r="BQ8" s="3"/>
-      <c r="BR8" s="3"/>
-    </row>
-    <row r="9" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6">
+        <v>40295</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6">
-        <v>40295</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>23</v>
+      <c r="H9" s="2">
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -2452,17 +2320,16 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
+      <c r="L9"/>
+      <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -2509,55 +2376,51 @@
       <c r="BM9" s="3"/>
       <c r="BN9" s="3"/>
       <c r="BO9" s="3"/>
-      <c r="BP9" s="3"/>
-      <c r="BQ9" s="3"/>
-      <c r="BR9" s="3"/>
-    </row>
-    <row r="10" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6">
         <v>40302</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2</v>
       </c>
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>23</v>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
       </c>
       <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>4</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>4</v>
-      </c>
+      <c r="L10"/>
+      <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -2604,55 +2467,51 @@
       <c r="BM10" s="3"/>
       <c r="BN10" s="3"/>
       <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3"/>
-      <c r="BR10" s="3"/>
-    </row>
-    <row r="11" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6">
         <v>40318</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
       </c>
       <c r="F11" s="16">
         <v>1</v>
       </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>23</v>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K11" s="2">
         <v>0.25</v>
       </c>
-      <c r="L11" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="L11"/>
+      <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -2699,55 +2558,51 @@
       <c r="BM11" s="3"/>
       <c r="BN11" s="3"/>
       <c r="BO11" s="3"/>
-      <c r="BP11" s="3"/>
-      <c r="BQ11" s="3"/>
-      <c r="BR11" s="3"/>
-    </row>
-    <row r="12" spans="1:70" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6">
         <v>40335</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>23</v>
+      <c r="H12" s="2">
+        <v>1.25</v>
       </c>
       <c r="I12" s="2">
         <v>1.25</v>
       </c>
       <c r="J12" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
         <v>2.5</v>
       </c>
+      <c r="L12"/>
+      <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -2794,55 +2649,51 @@
       <c r="BM12" s="3"/>
       <c r="BN12" s="3"/>
       <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-    </row>
-    <row r="13" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6">
         <v>40360</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
       </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>23</v>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2">
+        <v>11.5</v>
       </c>
       <c r="I13" s="2">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="J13" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
         <v>29.5</v>
       </c>
+      <c r="L13"/>
+      <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -2889,55 +2740,51 @@
       <c r="BM13" s="3"/>
       <c r="BN13" s="3"/>
       <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-    </row>
-    <row r="14" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6">
         <v>40390</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2</v>
       </c>
       <c r="F14" s="16">
         <v>2</v>
       </c>
-      <c r="G14" s="16">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>23</v>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2">
-        <v>25</v>
+        <v>2.75</v>
       </c>
       <c r="K14" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="L14" s="2">
         <v>27.75</v>
       </c>
+      <c r="L14"/>
+      <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -2984,55 +2831,51 @@
       <c r="BM14" s="3"/>
       <c r="BN14" s="3"/>
       <c r="BO14" s="3"/>
-      <c r="BP14" s="3"/>
-      <c r="BQ14" s="3"/>
-      <c r="BR14" s="3"/>
-    </row>
-    <row r="15" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6">
         <v>40395</v>
       </c>
-      <c r="D15" s="1">
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2</v>
       </c>
       <c r="F15" s="16">
         <v>2</v>
       </c>
-      <c r="G15" s="16">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>13</v>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" s="2">
         <v>4</v>
       </c>
-      <c r="L15" s="2">
-        <v>4</v>
-      </c>
+      <c r="L15"/>
+      <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -3079,55 +2922,51 @@
       <c r="BM15" s="3"/>
       <c r="BN15" s="3"/>
       <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="3"/>
-    </row>
-    <row r="16" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6">
         <v>40440</v>
       </c>
-      <c r="D16" s="1">
+      <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3.5</v>
       </c>
       <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
         <v>3.5</v>
       </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>3.5</v>
-      </c>
+      <c r="L16"/>
+      <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -3174,34 +3013,31 @@
       <c r="BM16" s="3"/>
       <c r="BN16" s="3"/>
       <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="3"/>
-    </row>
-    <row r="17" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6">
+        <v>40469</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6">
-        <v>40469</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -3212,17 +3048,16 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
+      <c r="L17"/>
+      <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -3269,55 +3104,51 @@
       <c r="BM17" s="3"/>
       <c r="BN17" s="3"/>
       <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3"/>
-      <c r="BR17" s="3"/>
-    </row>
-    <row r="18" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6">
         <v>40473</v>
       </c>
-      <c r="D18" s="1">
+      <c r="C18" s="1">
         <v>6</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2.25</v>
       </c>
       <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
         <v>2.25</v>
       </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>2.25</v>
-      </c>
+      <c r="L18"/>
+      <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -3364,55 +3195,51 @@
       <c r="BM18" s="3"/>
       <c r="BN18" s="3"/>
       <c r="BO18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BQ18" s="3"/>
-      <c r="BR18" s="3"/>
-    </row>
-    <row r="19" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="6">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6">
         <v>40475</v>
       </c>
-      <c r="D19" s="1">
+      <c r="C19" s="1">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="16">
+        <v>2</v>
       </c>
       <c r="F19" s="16">
         <v>2</v>
       </c>
-      <c r="G19" s="16">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>13</v>
+      <c r="G19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.5</v>
       </c>
       <c r="I19" s="2">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="J19" s="2">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
         <v>4.75</v>
       </c>
+      <c r="L19"/>
+      <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -3459,55 +3286,51 @@
       <c r="BM19" s="3"/>
       <c r="BN19" s="3"/>
       <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
-      <c r="BQ19" s="3"/>
-      <c r="BR19" s="3"/>
-    </row>
-    <row r="20" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="6">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6">
         <v>40476</v>
       </c>
-      <c r="D20" s="1">
+      <c r="C20" s="1">
         <v>6</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="2">
         <v>12</v>
       </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.25</v>
-      </c>
       <c r="J20" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
         <v>12.25</v>
       </c>
+      <c r="L20"/>
+      <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -3554,55 +3377,51 @@
       <c r="BM20" s="3"/>
       <c r="BN20" s="3"/>
       <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3"/>
-      <c r="BR20" s="3"/>
-    </row>
-    <row r="21" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
         <v>40477</v>
       </c>
-      <c r="D21" s="1">
+      <c r="C21" s="1">
         <v>6</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="16">
         <v>4</v>
       </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.25</v>
       </c>
       <c r="I21" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K21" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -3649,55 +3468,51 @@
       <c r="BM21" s="3"/>
       <c r="BN21" s="3"/>
       <c r="BO21" s="3"/>
-      <c r="BP21" s="3"/>
-      <c r="BQ21" s="3"/>
-      <c r="BR21" s="3"/>
-    </row>
-    <row r="22" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
         <v>40478</v>
       </c>
-      <c r="D22" s="1">
+      <c r="C22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>23</v>
+      <c r="H22" s="2">
+        <v>0.75</v>
       </c>
       <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
         <v>0.75</v>
       </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.75</v>
-      </c>
+      <c r="L22"/>
+      <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -3744,55 +3559,51 @@
       <c r="BM22" s="3"/>
       <c r="BN22" s="3"/>
       <c r="BO22" s="3"/>
-      <c r="BP22" s="3"/>
-      <c r="BQ22" s="3"/>
-      <c r="BR22" s="3"/>
-    </row>
-    <row r="23" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
         <v>40479</v>
       </c>
-      <c r="D23" s="1">
+      <c r="C23" s="1">
         <v>5</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="16">
+        <v>2</v>
       </c>
       <c r="F23" s="16">
         <v>2</v>
       </c>
-      <c r="G23" s="16">
-        <v>2</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>13</v>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="J23" s="2">
-        <v>13.25</v>
+        <v>1.25</v>
       </c>
       <c r="K23" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="L23" s="2">
         <v>14.5</v>
       </c>
+      <c r="L23"/>
+      <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -3839,55 +3650,51 @@
       <c r="BM23" s="3"/>
       <c r="BN23" s="3"/>
       <c r="BO23" s="3"/>
-      <c r="BP23" s="3"/>
-      <c r="BQ23" s="3"/>
-      <c r="BR23" s="3"/>
-    </row>
-    <row r="24" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
         <v>40480</v>
       </c>
-      <c r="D24" s="1">
+      <c r="C24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="16">
         <v>4</v>
       </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
         <v>0.5</v>
       </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L24"/>
+      <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -3934,34 +3741,31 @@
       <c r="BM24" s="3"/>
       <c r="BN24" s="3"/>
       <c r="BO24" s="3"/>
-      <c r="BP24" s="3"/>
-      <c r="BQ24" s="3"/>
-      <c r="BR24" s="3"/>
-    </row>
-    <row r="25" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="17">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
         <v>40482</v>
       </c>
-      <c r="D25" s="1">
+      <c r="C25" s="1">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="16">
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="16">
         <v>4</v>
       </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>23</v>
+      <c r="H25" s="2">
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -3972,17 +3776,16 @@
       <c r="K25" s="2">
         <v>0</v>
       </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
+      <c r="L25"/>
+      <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -4029,94 +3832,75 @@
       <c r="BM25" s="3"/>
       <c r="BN25" s="3"/>
       <c r="BO25" s="3"/>
-      <c r="BP25" s="3"/>
-      <c r="BQ25" s="3"/>
-      <c r="BR25" s="3"/>
-    </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="C26" s="18"/>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="B26" s="17"/>
     </row>
   </sheetData>
-  <sortState ref="O2:U25">
-    <sortCondition ref="O2:O25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:R25">
+    <sortCondition ref="M2:M25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1">
         <v>39673</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
@@ -4124,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1">
         <v>0.25</v>
@@ -4135,46 +3919,25 @@
       <c r="H2" s="1">
         <v>2.75</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>2.5</v>
       </c>
-      <c r="K2">
-        <v>39673</v>
-      </c>
-      <c r="L2">
-        <v>0.25</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>2.75</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1">
         <v>39689</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1">
         <v>0.25</v>
@@ -4185,38 +3948,17 @@
       <c r="H3" s="1">
         <v>1.5</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0.5</v>
       </c>
-      <c r="K3">
-        <v>39689</v>
-      </c>
-      <c r="L3">
-        <v>0.25</v>
-      </c>
-      <c r="M3">
-        <v>0.75</v>
-      </c>
-      <c r="N3">
-        <v>1.5</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
         <v>39813</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -4224,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1">
         <v>10.25</v>
@@ -4235,38 +3977,17 @@
       <c r="H4" s="1">
         <v>12</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>1.25</v>
       </c>
-      <c r="K4">
-        <v>39813</v>
-      </c>
-      <c r="L4">
-        <v>10.25</v>
-      </c>
-      <c r="M4">
-        <v>0.5</v>
-      </c>
-      <c r="N4">
-        <v>12</v>
-      </c>
-      <c r="O4">
-        <v>41</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1">
         <v>39827</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -4274,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
@@ -4285,38 +4006,17 @@
       <c r="H5" s="1">
         <v>6.25</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>39827</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>0.25</v>
-      </c>
-      <c r="N5">
-        <v>6.25</v>
-      </c>
-      <c r="O5">
-        <v>20</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1">
         <v>39988</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -4324,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1">
         <v>2.5</v>
@@ -4335,38 +4035,17 @@
       <c r="H6" s="1">
         <v>3.75</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>39988</v>
-      </c>
-      <c r="L6">
-        <v>2.5</v>
-      </c>
-      <c r="M6">
-        <v>0.25</v>
-      </c>
-      <c r="N6">
-        <v>3.75</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1">
         <v>40212</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -4374,7 +4053,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4385,46 +4064,25 @@
       <c r="H7" s="1">
         <v>5.25</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>40212</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>5.25</v>
-      </c>
-      <c r="N7">
-        <v>5.25</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>21</v>
-      </c>
-      <c r="Q7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1">
         <v>40228</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
         <v>5.5</v>
@@ -4435,46 +4093,25 @@
       <c r="H8" s="1">
         <v>9</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>3.5</v>
       </c>
-      <c r="K8">
-        <v>40228</v>
-      </c>
-      <c r="L8">
-        <v>5.5</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>9</v>
-      </c>
-      <c r="O8">
-        <v>22</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
         <v>40295</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4485,38 +4122,17 @@
       <c r="H9" s="1">
         <v>6.25</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>6.25</v>
       </c>
-      <c r="K9">
-        <v>40295</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>6.25</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
         <v>40302</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
@@ -4524,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4535,38 +4151,17 @@
       <c r="H10" s="1">
         <v>3.5</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>40302</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>3.5</v>
-      </c>
-      <c r="N10">
-        <v>3.5</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>14</v>
-      </c>
-      <c r="Q10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1">
         <v>40318</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -4574,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -4585,46 +4180,25 @@
       <c r="H11" s="1">
         <v>3.25</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>40318</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>1.25</v>
-      </c>
-      <c r="N11">
-        <v>3.25</v>
-      </c>
-      <c r="O11">
-        <v>8</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40335</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>40335</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1">
         <v>0.5</v>
@@ -4635,38 +4209,17 @@
       <c r="H12" s="1">
         <v>1.25</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>40335</v>
-      </c>
-      <c r="L12">
-        <v>0.5</v>
-      </c>
-      <c r="M12">
-        <v>0.75</v>
-      </c>
-      <c r="N12">
-        <v>1.25</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1">
         <v>40360</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
@@ -4674,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1">
         <v>0.75</v>
@@ -4685,38 +4238,17 @@
       <c r="H13" s="1">
         <v>27.5</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>20.75</v>
       </c>
-      <c r="K13">
-        <v>40360</v>
-      </c>
-      <c r="L13">
-        <v>0.75</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>27.5</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>24</v>
-      </c>
-      <c r="Q13">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1">
         <v>40390</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
@@ -4724,7 +4256,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1">
         <v>0.25</v>
@@ -4735,38 +4267,17 @@
       <c r="H14" s="1">
         <v>18.75</v>
       </c>
-      <c r="I14">
-        <v>18</v>
-      </c>
-      <c r="K14">
-        <v>40390</v>
-      </c>
-      <c r="L14">
-        <v>0.25</v>
-      </c>
-      <c r="M14">
-        <v>0.5</v>
-      </c>
-      <c r="N14">
-        <v>18.75</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="I14" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
         <v>40395</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
@@ -4774,7 +4285,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4785,46 +4296,25 @@
       <c r="H15" s="1">
         <v>0.5</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>40395</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0.5</v>
-      </c>
-      <c r="N15">
-        <v>0.5</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1">
         <v>40440</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4835,46 +4325,25 @@
       <c r="H16" s="1">
         <v>1.25</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>0.25</v>
       </c>
-      <c r="K16">
-        <v>40440</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1.25</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>4</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1">
         <v>40473</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4885,38 +4354,17 @@
       <c r="H17" s="1">
         <v>9.5</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>9.5</v>
       </c>
-      <c r="K17">
-        <v>40473</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>9.5</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1">
         <v>40475</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
@@ -4924,7 +4372,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4935,38 +4383,17 @@
       <c r="H18" s="1">
         <v>3.5</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>0.75</v>
       </c>
-      <c r="K18">
-        <v>40475</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>2.75</v>
-      </c>
-      <c r="N18">
-        <v>3.5</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>11</v>
-      </c>
-      <c r="Q18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1">
         <v>40476</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -4974,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4985,46 +4412,25 @@
       <c r="H19" s="1">
         <v>4</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>3.5</v>
       </c>
-      <c r="K19">
-        <v>40476</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0.5</v>
-      </c>
-      <c r="N19">
-        <v>4</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>2</v>
-      </c>
-      <c r="Q19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1">
         <v>40477</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1">
         <v>0.5</v>
@@ -5035,46 +4441,25 @@
       <c r="H20" s="1">
         <v>3</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>2.25</v>
       </c>
-      <c r="K20">
-        <v>40477</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
-      <c r="M20">
-        <v>0.25</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1">
         <v>40478</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5085,38 +4470,17 @@
       <c r="H21" s="1">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>40478</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <v>4</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>16</v>
-      </c>
-      <c r="Q21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1">
         <v>40479</v>
       </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
@@ -5124,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1">
         <v>4.25</v>
@@ -5135,46 +4499,25 @@
       <c r="H22" s="1">
         <v>7.5</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>3.25</v>
       </c>
-      <c r="K22">
-        <v>40479</v>
-      </c>
-      <c r="L22">
-        <v>4.25</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>7.5</v>
-      </c>
-      <c r="O22">
-        <v>17</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
         <v>40480</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1">
         <v>3.25</v>
@@ -5185,46 +4528,25 @@
       <c r="H23" s="1">
         <v>5.5</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>1.75</v>
       </c>
-      <c r="K23">
-        <v>40480</v>
-      </c>
-      <c r="L23">
-        <v>3.25</v>
-      </c>
-      <c r="M23">
-        <v>0.5</v>
-      </c>
-      <c r="N23">
-        <v>5.5</v>
-      </c>
-      <c r="O23">
-        <v>13</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1">
         <v>40482</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1">
         <v>0.5</v>
@@ -5235,83 +4557,57 @@
       <c r="H24" s="1">
         <v>2.25</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>0.5</v>
       </c>
-      <c r="K24">
-        <v>40482</v>
-      </c>
-      <c r="L24">
-        <v>0.5</v>
-      </c>
-      <c r="M24">
-        <v>1.25</v>
-      </c>
-      <c r="N24">
-        <v>2.25</v>
-      </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="P24">
-        <v>5</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I24">
-    <sortCondition ref="A2:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I24">
+    <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="E1" s="15" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
         <v>39813</v>
@@ -5323,18 +4619,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F2" s="8">
         <v>39905</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6">
         <v>39827</v>
@@ -5346,18 +4642,18 @@
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F3" s="8">
         <v>39906</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6">
         <v>39988</v>
@@ -5369,18 +4665,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F4" s="8">
         <v>39920</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6">
         <v>40318</v>
@@ -5392,18 +4688,18 @@
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F5" s="8">
         <v>39968</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>40360</v>
@@ -5415,18 +4711,18 @@
         <v>4</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F6" s="8">
         <v>39980</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>40476</v>
@@ -5438,18 +4734,18 @@
         <v>6</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F7" s="8">
         <v>40071</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10">
         <v>39673</v>
@@ -5461,18 +4757,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8">
         <v>39888</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6">
         <v>40212</v>
@@ -5484,18 +4780,18 @@
         <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8">
         <v>39948</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6">
         <v>40302</v>
@@ -5507,18 +4803,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F10" s="8">
         <v>39964</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" s="6">
         <v>40390</v>
@@ -5530,18 +4826,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8">
         <v>39989</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6">
         <v>40395</v>
@@ -5553,18 +4849,18 @@
         <v>3</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F12" s="8">
         <v>39990</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6">
         <v>40475</v>
@@ -5576,18 +4872,18 @@
         <v>4</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F13" s="8">
         <v>40070</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6">
         <v>40479</v>
@@ -5599,18 +4895,18 @@
         <v>5</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8">
         <v>40076</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" s="6">
         <v>40477</v>
@@ -5622,18 +4918,18 @@
         <v>6</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F15" s="8">
         <v>40072</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" s="6">
         <v>40480</v>
@@ -5645,18 +4941,18 @@
         <v>5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F16" s="8">
         <v>40077</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B17" s="6">
         <v>40482</v>
@@ -5668,212 +4964,212 @@
         <v>6</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F17" s="8">
         <v>40080</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6">
         <v>39689</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F18" s="8">
         <v>39891</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B19" s="6">
         <v>40228</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19" s="9">
         <v>2</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F19" s="8">
         <v>39950</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B20" s="6">
         <v>40295</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" s="9">
         <v>3</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F20" s="8">
         <v>39962</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B21" s="6">
         <v>40469</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="9">
         <v>5</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F21" s="8">
         <v>40055</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B22" s="6">
         <v>40335</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D22" s="9">
         <v>4</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F22" s="8">
         <v>39973</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" s="6">
         <v>40440</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D23" s="9">
         <v>4</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F23" s="8">
         <v>40015</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24" s="6">
         <v>40478</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D24" s="9">
         <v>5</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F24" s="8">
         <v>40073</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B25" s="6">
         <v>40473</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D25" s="14">
         <v>6</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
